--- a/biology/Médecine/Robert_Killick-Kendrick/Robert_Killick-Kendrick.xlsx
+++ b/biology/Médecine/Robert_Killick-Kendrick/Robert_Killick-Kendrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Killick-Kendrick, né le 20 juin 1929 à Hampton au Royaume-Uni et mort le 22 octobre 2011 à Ganges dans le Gard[1], est un biologiste et chercheur, spécialiste des vecteurs de maladies transmissibles particulièrement des Phlebotomes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Killick-Kendrick, né le 20 juin 1929 à Hampton au Royaume-Uni et mort le 22 octobre 2011 à Ganges dans le Gard, est un biologiste et chercheur, spécialiste des vecteurs de maladies transmissibles particulièrement des Phlebotomes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Master of Philosophy (MPhil)
 1972 - Docteur en Philosophie (Ph. D.)
@@ -548,13 +562,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Robert Killick-Kendrick commence sa carrière de chercheur au Nigeria en 1955 où il passe huit années à travailler sur la maladie du sommeil et les maladies apparentées, notamment sur les animaux domestiques.
 Il quitte l’Afrique et rejoint la London School of Hygiene and Tropical Medicine où il enseigne la parasitologie et poursuit ses recherches, principalement sur le paludisme de 1949 à 1955 puis de 1963 à 1969.
-En 1972, il entame des recherches sur la leishmaniose et ses vecteurs (les phlébotomes). Il est alors à l'Imperial College London, Royaume-Uni, en tant que chercheur du Medical Research Council [1] depuis 1969. La leishmaniose se rencontrant dans les régions chaudes, il parcourt l’Amérique du Sud, l’Afrique, l’Asie et les pays du bassin méditerranéen où il est secondé par son épouse Mireille Killick-Kendrick, elle-même entomologiste. Depuis de nombreuses années, ils habitent dans les Cévennes gardoises.
+En 1972, il entame des recherches sur la leishmaniose et ses vecteurs (les phlébotomes). Il est alors à l'Imperial College London, Royaume-Uni, en tant que chercheur du Medical Research Council  depuis 1969. La leishmaniose se rencontrant dans les régions chaudes, il parcourt l’Amérique du Sud, l’Afrique, l’Asie et les pays du bassin méditerranéen où il est secondé par son épouse Mireille Killick-Kendrick, elle-même entomologiste. Depuis de nombreuses années, ils habitent dans les Cévennes gardoises.
 En 1988, le Dr Robert Killick-Kendrick est nommé membre du Comité d'experts sur les leishmanioses de l'Organisation mondiale de la santé dont il est un des intervenants réguliers.
-Très attaché à la figure de Charles Darwin, le Dr Robert Killick-Kendrick lui a consacré sa communication de réception à l'Académie des Hauts Cantons en 2008 [2].
+Très attaché à la figure de Charles Darwin, le Dr Robert Killick-Kendrick lui a consacré sa communication de réception à l'Académie des Hauts Cantons en 2008 .
 </t>
         </is>
       </c>
@@ -583,11 +599,13 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre honoraire de la Royal Entomological Society (en 2005)
-Membre honoraire de la Società Italiana di Parassitologia[3] (en 1991)
-Membre de l'American Society of Tropical Medicine and Hygiene[4]
+Membre honoraire de la Società Italiana di Parassitologia (en 1991)
+Membre de l'American Society of Tropical Medicine and Hygiene
 Membre de l'Académie des Hauts Cantons (fauteuil XX) (en 2008)
 Membre honoraire de la Turkish Society for Parasitology (en 2011)
 Pour ses contributions à la médecine tropicale, le Dr Robert Killick-Kendrick a reçu 
@@ -620,7 +638,9 @@
           <t>Articles et contributions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ses travaux sur le paludisme, la trypanosomiase, la leishmaniose et les maladies parasitaires font autorité (il a publié un peu plus de 300 articles et contributions scientifiques).
 Schnur Lionel F; Nasereddin Abdelmageed; Eisenberger Carol L; Jaffe Charles L; El Fari Mustafa; Azmi Kifaya; Anders Gerlind; Killick-Kendrick Mireille; Killick-Kendrick Robert; Dedet Jean Pierre; Pratlong Francine; Kanaan Moien; Grossman Tamar; Jacobson Raymond L; Schonian Gabrielle; Warburg Alon. Multifarious characterization of leishmania tropica from a Judean desert focus, exposing intraspecific diversity and incriminating phlebotomus sergenti as its vector. [The American journal of tropical medicine and hygiene] 2004;70(4):364-72.
